--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1081,91 +1081,91 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.44</v>
       </c>
-      <c r="M9" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
     </row>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1216,16 +1216,16 @@
         <v>17</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P10" t="n">
         <v>1.29</v>
@@ -1234,16 +1234,16 @@
         <v>3.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>8.5</v>
       </c>
       <c r="U10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
@@ -1258,10 +1258,10 @@
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1578,10 +1578,10 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.53</v>
@@ -1626,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6</v>
@@ -1824,37 +1824,37 @@
         <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>15</v>
@@ -1869,10 +1869,10 @@
         <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -1884,10 +1884,10 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
         <v>9.5</v>
@@ -1902,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -1937,37 +1937,37 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
         <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
         <v>1.7</v>
@@ -1976,7 +1976,7 @@
         <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
         <v>15</v>
@@ -1994,7 +1994,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
         <v>6</v>
@@ -2015,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -2024,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2244,35 +2244,89 @@
           <t>Wydad</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.55</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>32</v>
+      </c>
+      <c r="V22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>120</v>
+      </c>
+      <c r="X22" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>32</v>
+      </c>
       <c r="AJ22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2306,36 +2360,96 @@
           <t>Maghreb Fez</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
+        <v>11</v>
+      </c>
+      <c r="W23" t="n">
+        <v>26</v>
+      </c>
+      <c r="X23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,173 +581,293 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GjZKRSpL</t>
+          <t>rgPY7Lp1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Montana</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+          <t>Hebar</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEvzMxc2</t>
+          <t>dvISTgW9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Botev Plovdiv II</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nesebar</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6y8vX253</t>
+          <t>SjdmVtzG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -762,12 +882,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Lok. Gorna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Fratria</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -804,12 +924,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pWMqBLrp</t>
+          <t>zHaeTK4S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -824,12 +944,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pirin Blagoevgrad</t>
+          <t>CSKA Sofia II</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -866,12 +986,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0OAiM68r</t>
+          <t>8QVCTlG8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -886,12 +1006,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Minyor Pernik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -928,32 +1048,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>f1tSNbSk</t>
+          <t>IRJb8JTb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Etar</t>
+          <t>Guanacasteca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Herediano</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -990,960 +1110,1260 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tbGh9aDd</t>
+          <t>6mjtjxEU</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Alajuelense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+          <t>Liberia</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>67</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nPr4CQDM</t>
+          <t>A1GjAuan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Cartagines</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Sporting San Jose</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
         <v>34</v>
       </c>
-      <c r="Z9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AG9" t="n">
         <v>21</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AH9" t="n">
         <v>67</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>41</v>
       </c>
       <c r="AI9" t="n">
         <v>51</v>
       </c>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AVH7dFi4</t>
+          <t>EgD76cbB</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Puntarenas FC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
         <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="n">
         <v>51</v>
       </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6oH0u8se</t>
+          <t>GxUwaFjo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cumbaya</t>
+          <t>Zeledon</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>San Antonio</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T11" t="n">
+        <v>13</v>
+      </c>
+      <c r="U11" t="n">
+        <v>29</v>
+      </c>
+      <c r="V11" t="n">
+        <v>19</v>
+      </c>
+      <c r="W11" t="n">
+        <v>67</v>
+      </c>
+      <c r="X11" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>hGfshoR0</t>
+          <t>dMdPzww1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Brno</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guayaquil City</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+          <t>Zizkov</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>15</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QaHszFjD</t>
+          <t>prwKdKaK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Slavia Prague B</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>1.85</v>
       </c>
       <c r="J13" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>2.95</v>
+        <v>4.33</v>
       </c>
       <c r="N13" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="U13" t="n">
-        <v>6.2</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
+        <v>13</v>
+      </c>
+      <c r="W13" t="n">
+        <v>41</v>
+      </c>
+      <c r="X13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG13" t="n">
         <v>8.5</v>
       </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6ups7n26</t>
+          <t>4OHprLpR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sparta Prague B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Sigma Olomouc B</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11</v>
+      </c>
+      <c r="X14" t="n">
         <v>12</v>
       </c>
-      <c r="V14" t="n">
-        <v>11</v>
-      </c>
-      <c r="W14" t="n">
-        <v>29</v>
-      </c>
-      <c r="X14" t="n">
-        <v>26</v>
-      </c>
       <c r="Y14" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
         <v>19</v>
       </c>
-      <c r="AC14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>29</v>
-      </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AI14" t="n">
         <v>41</v>
       </c>
       <c r="AJ14" t="n">
-        <v>501</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0UXvvufK</t>
+          <t>bRExpsGE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi</t>
+          <t>Chrudim</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Telavi</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+          <t>Prostejov</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11</v>
+      </c>
+      <c r="V15" t="n">
+        <v>9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>21</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vPnpIcX0</t>
+          <t>ldgHxa8l</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FC Gareji Sagarejo</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+          <t>Zlin</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>34</v>
+      </c>
+      <c r="X16" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EcJtE4V6</t>
+          <t>hljYYG7D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Taborsko</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Vlasim</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
+        <v>8</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
         <v>15</v>
       </c>
-      <c r="V17" t="n">
-        <v>10</v>
-      </c>
-      <c r="W17" t="n">
-        <v>29</v>
-      </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
         <v>29</v>
       </c>
       <c r="Z17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI17" t="n">
         <v>41</v>
       </c>
-      <c r="AD17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xvaYGmWF</t>
+          <t>S2tqibNs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Varnsdorf</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Jihlava</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -1952,10 +2372,10 @@
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
         <v>1.9</v>
@@ -1970,734 +2390,3514 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="U18" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W18" t="n">
         <v>15</v>
       </c>
-      <c r="V18" t="n">
-        <v>11</v>
-      </c>
-      <c r="W18" t="n">
-        <v>29</v>
-      </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AH18" t="n">
         <v>41</v>
       </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
       <c r="AI18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vcKI1UJj</t>
+          <t>zTqikxhf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FAR Rabat</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Moghreb Tetouan</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+          <t>Lisen</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>9</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yeuv9CRG</t>
+          <t>tOe3aTYQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Nueve de Octubre</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>20</v>
+      </c>
+      <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>120</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CtiVAYd4</t>
+          <t>h2F8wnC7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Gualaceo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>COD Meknes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>Vargas Torres</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.5</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>250</v>
+      </c>
       <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SI0DNBtA</t>
+          <t>z3hD0Eaf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Wydad</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="I22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>2.62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.15</v>
+      </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="M22" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N22" t="n">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.57</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="S22" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="T22" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V22" t="n">
         <v>13.5</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
+        <v>55</v>
+      </c>
+      <c r="X22" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
         <v>32</v>
-      </c>
-      <c r="V22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>120</v>
-      </c>
-      <c r="X22" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>13.5</v>
       </c>
       <c r="AI22" t="n">
         <v>32</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wj74PXBc</t>
+          <t>dItMbhU6</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Olympique de Safi</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Maghreb Fez</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="K23" t="n">
-        <v>6.5</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.5</v>
       </c>
-      <c r="M23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X23" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB23" t="n">
         <v>23</v>
       </c>
-      <c r="Y23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
       <c r="AC23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
-        <v>301</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4GmNCfSi</t>
+          <t>hSCJWdnf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
+          <t>Dila Gori</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>Torpedo Kutaisi</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KCwn7jdT</t>
+          <t>p29BYIHs</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Samgurali</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>Gagra</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.25</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.42</v>
+      </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UmdoMzKj</t>
+          <t>zitgGy2D</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Dinamo Batumi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Guarani de Fram</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>Iberia 1999</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.3</v>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>32</v>
+      </c>
+      <c r="X26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dflXqvCc</t>
+          <t>UL7LTjxf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>07/05/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Guairena</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sp. Carapegua</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+          <t>Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K27" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T27" t="n">
+        <v>15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>29</v>
+      </c>
+      <c r="V27" t="n">
+        <v>17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>51</v>
+      </c>
+      <c r="X27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>hI7vU9xh</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AlbinoLeffe</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Atalanta U23</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U28" t="n">
+        <v>13</v>
+      </c>
+      <c r="V28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>30</v>
+      </c>
+      <c r="X28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>pjiYePQ8</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Arezzo</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>22</v>
+      </c>
+      <c r="X29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>YRFnSm74</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Potenza</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>16</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6VOXSQdM</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Juventus U23</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>QBFh66po</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pescara</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Pianese</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>QLbeeXI0</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE C</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Renate</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Giana Erminio</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>26</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MDwJXbWG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Machida</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>9</v>
+      </c>
+      <c r="W34" t="n">
+        <v>17</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SC5jFjGk</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Shonan Bellmare</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sanfrecce Hiroshima</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>19</v>
+      </c>
+      <c r="V35" t="n">
+        <v>13</v>
+      </c>
+      <c r="W35" t="n">
+        <v>41</v>
+      </c>
+      <c r="X35" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IcphYk9r</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T36" t="n">
+        <v>11</v>
+      </c>
+      <c r="U36" t="n">
+        <v>13</v>
+      </c>
+      <c r="V36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>23</v>
+      </c>
+      <c r="X36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>l85zkizo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Chabab Mohammedia</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>29</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" t="n">
+        <v>13</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>250</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>500</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="n">
+        <v>900</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fVB964Kk</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13:15</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Al Raed</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Al Hilal</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>11</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>13</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T38" t="n">
+        <v>34</v>
+      </c>
+      <c r="U38" t="n">
+        <v>51</v>
+      </c>
+      <c r="V38" t="n">
+        <v>29</v>
+      </c>
+      <c r="W38" t="n">
+        <v>126</v>
+      </c>
+      <c r="X38" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t4TMF8c3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Al Taawon</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I39" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K39" t="n">
+        <v>17</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T39" t="n">
+        <v>9</v>
+      </c>
+      <c r="U39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9</v>
+      </c>
+      <c r="W39" t="n">
+        <v>9</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>rih4Sos9</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>15</v>
+      </c>
+      <c r="U40" t="n">
+        <v>13</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>19</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8YLtWmOr</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Abha</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Al Najma</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T41" t="n">
+        <v>11</v>
+      </c>
+      <c r="U41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W41" t="n">
+        <v>45</v>
+      </c>
+      <c r="X41" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>UmAkURhe</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>13:20</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Al Bukiryah</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Al Hazem</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T42" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>20</v>
+      </c>
+      <c r="X42" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>tOy2wWV8</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ohod</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Al Jubail</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U43" t="n">
+        <v>15</v>
+      </c>
+      <c r="V43" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W43" t="n">
+        <v>40</v>
+      </c>
+      <c r="X43" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>8vJNkvSE</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Tampines</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Balestier Khalsa</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K44" t="n">
+        <v>34</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M44" t="n">
+        <v>13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T44" t="n">
+        <v>21</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>11</v>
+      </c>
+      <c r="W44" t="n">
+        <v>17</v>
+      </c>
+      <c r="X44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Qw81rdKl</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tanjong Pagar</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Young Lions</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>34</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="M45" t="n">
+        <v>10</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T45" t="n">
+        <v>21</v>
+      </c>
+      <c r="U45" t="n">
+        <v>21</v>
+      </c>
+      <c r="V45" t="n">
+        <v>12</v>
+      </c>
+      <c r="W45" t="n">
+        <v>29</v>
+      </c>
+      <c r="X45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6PipXzkg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Maribor</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Celje</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>28</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>pCd6bqel</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>07/05/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>9</v>
+      </c>
+      <c r="W47" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -481,137 +481,137 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over25_FT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under25_FT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over25_FT</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under25_FT</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
     </row>
@@ -646,30 +646,78 @@
           <t>Montana</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>32</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>60</v>
+      </c>
+      <c r="X2" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>27</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
@@ -832,30 +880,76 @@
           <t>Pirin Blagoevgrad</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O5" t="n">
+        <v>21</v>
+      </c>
+      <c r="P5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>40</v>
+      </c>
+      <c r="S5" t="n">
+        <v>50</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>80</v>
+      </c>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>25</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -894,30 +988,76 @@
           <t>Yantra Gabrovo</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>35</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>70</v>
+      </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
@@ -956,30 +1096,76 @@
           <t>Spartak Pleven</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>28</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>17</v>
+      </c>
+      <c r="W7" t="n">
+        <v>100</v>
+      </c>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
@@ -1018,30 +1204,78 @@
           <t>Dobrudzha</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>27</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S8" t="n">
+        <v>29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>60</v>
+      </c>
+      <c r="X8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>30</v>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
@@ -1090,84 +1324,84 @@
         <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>2.25</v>
       </c>
       <c r="K9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13</v>
+      </c>
+      <c r="R9" t="n">
+        <v>17</v>
+      </c>
+      <c r="S9" t="n">
+        <v>34</v>
+      </c>
+      <c r="T9" t="n">
         <v>7.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5.5</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
+        <v>67</v>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA9" t="n">
         <v>17</v>
       </c>
-      <c r="Y9" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AB9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>17</v>
-      </c>
       <c r="AG9" t="n">
-        <v>51</v>
+        <v>1.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>2.75</v>
       </c>
       <c r="AI9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1210,85 +1444,85 @@
         <v>6</v>
       </c>
       <c r="J10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" t="n">
+        <v>23</v>
+      </c>
+      <c r="T10" t="n">
+        <v>15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17</v>
+      </c>
+      <c r="W10" t="n">
+        <v>51</v>
+      </c>
+      <c r="X10" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="n">
         <v>1.03</v>
       </c>
-      <c r="K10" t="n">
+      <c r="AF10" t="n">
         <v>17</v>
       </c>
-      <c r="L10" t="n">
+      <c r="AG10" t="n">
         <v>1.18</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AH10" t="n">
         <v>4.5</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="AI10" t="n">
         <v>1.73</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AJ10" t="n">
         <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>10</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>201</v>
       </c>
     </row>
     <row r="11">
@@ -1456,85 +1690,85 @@
         <v>6.4</v>
       </c>
       <c r="J13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>35</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>21</v>
+      </c>
+      <c r="W13" t="n">
+        <v>120</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="n">
         <v>1.07</v>
       </c>
-      <c r="K13" t="n">
+      <c r="AF13" t="n">
         <v>6.8</v>
       </c>
-      <c r="L13" t="n">
+      <c r="AG13" t="n">
         <v>1.35</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AH13" t="n">
         <v>2.95</v>
       </c>
-      <c r="N13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="AI13" t="n">
         <v>2.15</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AJ13" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1578,85 +1812,85 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.11</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N14" t="n">
         <v>6.5</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.63</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.25</v>
+        <v>29</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>26</v>
       </c>
       <c r="S14" t="n">
-        <v>1.62</v>
+        <v>41</v>
       </c>
       <c r="T14" t="n">
         <v>6.5</v>
       </c>
       <c r="U14" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>19</v>
+      </c>
+      <c r="W14" t="n">
+        <v>81</v>
+      </c>
+      <c r="X14" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>12</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
         <v>29</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AC14" t="n">
         <v>26</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AD14" t="n">
         <v>41</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AE14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
       <c r="AG14" t="n">
-        <v>29</v>
+        <v>1.53</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>2.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>41</v>
+        <v>2.2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>501</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="15">
@@ -1690,30 +1924,72 @@
           <t>Telavi</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>30</v>
+      </c>
+      <c r="T15" t="n">
+        <v>11</v>
+      </c>
+      <c r="U15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>25</v>
+      </c>
+      <c r="W15" t="n">
+        <v>120</v>
+      </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>120</v>
+      </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
@@ -1752,30 +2028,78 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>21</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17</v>
+      </c>
+      <c r="S16" t="n">
+        <v>26</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>55</v>
+      </c>
+      <c r="X16" t="n">
+        <v>450</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>29</v>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
@@ -1818,91 +2142,91 @@
         <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>2.15</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>1.67</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.75</v>
+        <v>13</v>
       </c>
       <c r="P17" t="n">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>23</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>34</v>
       </c>
       <c r="T17" t="n">
         <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="Y17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD17" t="n">
         <v>34</v>
       </c>
-      <c r="Z17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>1.07</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>1.36</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>1.91</v>
       </c>
       <c r="AJ17" t="n">
-        <v>251</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="18">
@@ -1946,85 +2270,85 @@
         <v>2.55</v>
       </c>
       <c r="J18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>29</v>
+      </c>
+      <c r="R18" t="n">
+        <v>21</v>
+      </c>
+      <c r="S18" t="n">
+        <v>29</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>13</v>
+      </c>
+      <c r="W18" t="n">
+        <v>41</v>
+      </c>
+      <c r="X18" t="n">
+        <v>151</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE18" t="n">
         <v>1.05</v>
       </c>
-      <c r="K18" t="n">
+      <c r="AF18" t="n">
         <v>11</v>
       </c>
-      <c r="L18" t="n">
+      <c r="AG18" t="n">
         <v>1.25</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AH18" t="n">
         <v>3.75</v>
       </c>
-      <c r="N18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="AI18" t="n">
         <v>1.7</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AJ18" t="n">
         <v>2.05</v>
-      </c>
-      <c r="T18" t="n">
-        <v>10</v>
-      </c>
-      <c r="U18" t="n">
-        <v>15</v>
-      </c>
-      <c r="V18" t="n">
-        <v>11</v>
-      </c>
-      <c r="W18" t="n">
-        <v>29</v>
-      </c>
-      <c r="X18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -2245,93 +2569,95 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08</v>
+        <v>2.15</v>
       </c>
       <c r="K22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>29</v>
+      </c>
+      <c r="P22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>67</v>
+      </c>
+      <c r="R22" t="n">
+        <v>51</v>
+      </c>
+      <c r="S22" t="n">
+        <v>51</v>
+      </c>
+      <c r="T22" t="n">
         <v>8</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T22" t="n">
-        <v>13</v>
-      </c>
       <c r="U22" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="V22" t="n">
         <v>21</v>
       </c>
       <c r="W22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X22" t="n">
-        <v>51</v>
+        <v>900</v>
       </c>
       <c r="Y22" t="n">
-        <v>67</v>
+        <v>5.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF22" t="n">
         <v>8</v>
       </c>
-      <c r="AA22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9</v>
-      </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>1.36</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AI22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
+        <v>2.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2365,94 +2691,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N23" t="n">
         <v>6.5</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>11</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>26</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>23</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>41</v>
       </c>
       <c r="T23" t="n">
         <v>6.5</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="Y23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD23" t="n">
         <v>41</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AE23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AF23" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>12</v>
-      </c>
       <c r="AG23" t="n">
-        <v>34</v>
+        <v>1.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>2.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>41</v>
+        <v>2.1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>301</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="24">

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
         <v>2.18</v>
@@ -662,61 +662,61 @@
         <v>1.53</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>9.75</v>
+        <v>14.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="V2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="X2" t="n">
         <v>450</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>4.45</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>9.75</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -1226,13 +1226,13 @@
         <v>2.12</v>
       </c>
       <c r="N8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O8" t="n">
         <v>11.25</v>
       </c>
       <c r="P8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Q8" t="n">
         <v>27</v>
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="S8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T8" t="n">
         <v>6.7</v>
@@ -1250,7 +1250,7 @@
         <v>4.85</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W8" t="n">
         <v>60</v>
@@ -1259,10 +1259,10 @@
         <v>500</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA8" t="n">
         <v>8.25</v>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
         <v>30</v>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.25</v>
@@ -1345,16 +1345,16 @@
         <v>9</v>
       </c>
       <c r="Q9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
         <v>34</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
@@ -1367,28 +1367,28 @@
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
         <v>51</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>1.4</v>
@@ -1928,10 +1928,10 @@
         <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
         <v>1.65</v>
@@ -1945,7 +1945,7 @@
         <v>5.3</v>
       </c>
       <c r="O15" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="P15" t="n">
         <v>8</v>
@@ -1960,7 +1960,7 @@
         <v>30</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U15" t="n">
         <v>9.5</v>
@@ -1973,19 +1973,19 @@
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AC15" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="n">
         <v>120</v>
@@ -2029,13 +2029,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>2.07</v>
@@ -2050,55 +2050,55 @@
         <v>2.4</v>
       </c>
       <c r="N16" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O16" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="S16" t="n">
         <v>26</v>
       </c>
       <c r="T16" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="V16" t="n">
         <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X16" t="n">
         <v>450</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
         <v>8.75</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
@@ -2148,10 +2148,10 @@
         <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2214,7 +2214,7 @@
         <v>1.07</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
         <v>1.36</v>
@@ -2382,36 +2382,94 @@
           <t>Moghreb Tetouan</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>41</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8</v>
+      </c>
+      <c r="V19" t="n">
+        <v>26</v>
+      </c>
+      <c r="W19" t="n">
+        <v>101</v>
+      </c>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2444,36 +2502,94 @@
           <t>Hassania Agadir</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13</v>
+      </c>
+      <c r="S20" t="n">
+        <v>34</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>21</v>
+      </c>
+      <c r="W20" t="n">
+        <v>81</v>
+      </c>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2620,7 +2736,7 @@
         <v>67</v>
       </c>
       <c r="X22" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Y22" t="n">
         <v>5.5</v>
@@ -2691,13 +2807,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>2.6</v>
@@ -2715,13 +2831,13 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R23" t="n">
         <v>23</v>
@@ -2745,7 +2861,7 @@
         <v>301</v>
       </c>
       <c r="Y23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -650,7 +650,7 @@
         <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>1.62</v>
@@ -668,13 +668,13 @@
         <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O2" t="n">
         <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
         <v>90</v>
@@ -692,19 +692,19 @@
         <v>5.7</v>
       </c>
       <c r="V2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X2" t="n">
         <v>450</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA2" t="n">
         <v>7.1</v>
@@ -1318,10 +1318,10 @@
         <v>1.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>2.25</v>
@@ -1339,7 +1339,7 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P9" t="n">
         <v>9</v>
@@ -1354,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
@@ -1363,20 +1363,20 @@
         <v>21</v>
       </c>
       <c r="W9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
         <v>19</v>
       </c>
       <c r="AB9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC9" t="n">
         <v>51</v>
@@ -1385,10 +1385,10 @@
         <v>51</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AF9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG9" t="n">
         <v>1.4</v>
@@ -1809,7 +1809,7 @@
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="n">
         <v>2.63</v>
@@ -1851,7 +1851,7 @@
         <v>19</v>
       </c>
       <c r="W14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X14" t="n">
         <v>501</v>
@@ -1887,10 +1887,10 @@
         <v>2.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="15">
@@ -1925,70 +1925,70 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>4.45</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="R15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T15" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="V15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AC15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -2193,7 +2193,7 @@
         <v>301</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
@@ -2214,7 +2214,7 @@
         <v>1.07</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG17" t="n">
         <v>1.36</v>
@@ -2327,10 +2327,10 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>1.05</v>
@@ -2383,59 +2383,59 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.44</v>
-      </c>
       <c r="M19" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
         <v>9</v>
       </c>
       <c r="Q19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>13</v>
+      </c>
+      <c r="S19" t="n">
+        <v>34</v>
+      </c>
+      <c r="T19" t="n">
         <v>9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>15</v>
-      </c>
-      <c r="S19" t="n">
-        <v>41</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -2450,25 +2450,25 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AF19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="20">
@@ -2512,10 +2512,10 @@
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2576,7 +2576,7 @@
         <v>1.07</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>1.33</v>
@@ -2622,36 +2622,90 @@
           <t>COD Meknes</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>34</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>21</v>
+      </c>
+      <c r="W21" t="n">
+        <v>81</v>
+      </c>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>67</v>
+      </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="AG21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2736,7 +2790,7 @@
         <v>67</v>
       </c>
       <c r="X22" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y22" t="n">
         <v>5.5</v>
@@ -2807,13 +2861,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
         <v>2.6</v>
@@ -2831,13 +2885,13 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R23" t="n">
         <v>23</v>
@@ -2861,7 +2915,7 @@
         <v>301</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z23" t="n">
         <v>13</v>
@@ -2928,36 +2982,90 @@
           <t>Difaa El Jadidi</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>13</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>34</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>21</v>
+      </c>
+      <c r="W24" t="n">
+        <v>67</v>
+      </c>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2990,36 +3098,90 @@
           <t>Union Touarga</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>19</v>
+      </c>
+      <c r="R25" t="n">
+        <v>21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>34</v>
+      </c>
+      <c r="T25" t="n">
+        <v>7</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>19</v>
+      </c>
+      <c r="W25" t="n">
+        <v>67</v>
+      </c>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>41</v>
+      </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>1.6</v>
@@ -1465,10 +1465,10 @@
         <v>8.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
         <v>23</v>
@@ -1489,13 +1489,13 @@
         <v>201</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
         <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>67</v>
@@ -1510,7 +1510,7 @@
         <v>1.03</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>1.18</v>
@@ -1556,36 +1556,90 @@
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>17</v>
+      </c>
+      <c r="R11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>40</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>20</v>
+      </c>
+      <c r="W11" t="n">
+        <v>120</v>
+      </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>60</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="AG11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1618,36 +1672,90 @@
           <t>Guayaquil City</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>23</v>
+      </c>
+      <c r="S12" t="n">
+        <v>45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>19</v>
+      </c>
+      <c r="W12" t="n">
+        <v>120</v>
+      </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>55</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1925,70 +2033,70 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H15" t="n">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="I15" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="K15" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="P15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S15" t="n">
         <v>28</v>
       </c>
       <c r="T15" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="V15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W15" t="n">
         <v>110</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AC15" t="n">
         <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -2148,10 +2256,10 @@
         <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2214,7 +2322,7 @@
         <v>1.07</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG17" t="n">
         <v>1.36</v>
@@ -2383,19 +2491,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="K19" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="L19" t="n">
         <v>1.4</v>
@@ -2404,7 +2512,7 @@
         <v>2.75</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
         <v>6</v>
@@ -2422,7 +2530,7 @@
         <v>34</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
@@ -2435,7 +2543,7 @@
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -2459,16 +2567,16 @@
         <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="20">
@@ -2512,16 +2620,16 @@
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>5.5</v>
@@ -2536,19 +2644,19 @@
         <v>9.5</v>
       </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
         <v>7.5</v>
       </c>
       <c r="V20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W20" t="n">
         <v>81</v>
@@ -2567,7 +2675,7 @@
         <v>81</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD20" t="n">
         <v>67</v>
@@ -2579,16 +2687,16 @@
         <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="21">
@@ -2623,25 +2731,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="L21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="N21" t="n">
         <v>5.5</v>
@@ -2650,16 +2758,16 @@
         <v>6</v>
       </c>
       <c r="P21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>9</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>10</v>
       </c>
       <c r="R21" t="n">
         <v>15</v>
       </c>
       <c r="S21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T21" t="n">
         <v>7.5</v>
@@ -2668,43 +2776,43 @@
         <v>7.5</v>
       </c>
       <c r="V21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W21" t="n">
         <v>81</v>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD21" t="n">
         <v>81</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>67</v>
       </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="22">
@@ -2861,46 +2969,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="K23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="L23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
         <v>11</v>
       </c>
       <c r="Q23" t="n">
+        <v>23</v>
+      </c>
+      <c r="R23" t="n">
         <v>26</v>
-      </c>
-      <c r="R23" t="n">
-        <v>23</v>
       </c>
       <c r="S23" t="n">
         <v>41</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
         <v>6</v>
@@ -2909,7 +3017,7 @@
         <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X23" t="n">
         <v>301</v>
@@ -2939,16 +3047,16 @@
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="24">
@@ -2983,19 +3091,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.42</v>
@@ -3007,13 +3115,13 @@
         <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" t="n">
         <v>15</v>
@@ -3022,7 +3130,7 @@
         <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
@@ -3035,13 +3143,13 @@
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
         <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
         <v>51</v>
@@ -3050,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="AD24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
@@ -3061,10 +3169,10 @@
         <v>2.67</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="25">
@@ -3114,10 +3222,10 @@
         <v>1.53</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="N25" t="n">
         <v>6</v>
@@ -3171,16 +3279,16 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="26">

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1097,74 +1097,76 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="O7" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="P7" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="S7" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>100</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="X7" t="n">
+        <v>450</v>
+      </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB7" t="n">
         <v>80</v>
       </c>
       <c r="AC7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1435,13 +1437,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.6</v>
@@ -1492,13 +1494,13 @@
         <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1510,7 +1512,7 @@
         <v>1.03</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>1.18</v>
@@ -1673,28 +1675,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="n">
         <v>1.47</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>9.5</v>
@@ -1706,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="R12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" t="n">
         <v>45</v>
@@ -1718,14 +1720,14 @@
         <v>6.1</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="W12" t="n">
         <v>120</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z12" t="n">
         <v>14</v>
@@ -1748,13 +1750,13 @@
         <v>1.47</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="13">
@@ -1789,19 +1791,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L13" t="n">
         <v>1.4</v>
@@ -1813,13 +1815,13 @@
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="R13" t="n">
         <v>13.5</v>
@@ -1831,7 +1833,7 @@
         <v>6.8</v>
       </c>
       <c r="U13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="V13" t="n">
         <v>21</v>
@@ -1843,22 +1845,22 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AC13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE13" t="n">
         <v>1.07</v>
@@ -1867,10 +1869,10 @@
         <v>6.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>2.15</v>
@@ -2500,46 +2502,46 @@
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N19" t="n">
         <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Q19" t="n">
         <v>8.5</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U19" t="n">
         <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
@@ -2549,7 +2551,7 @@
         <v>41</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB19" t="n">
         <v>101</v>
@@ -2558,7 +2560,7 @@
         <v>67</v>
       </c>
       <c r="AD19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="n">
         <v>1.07</v>
@@ -2567,16 +2569,16 @@
         <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AH19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -2632,7 +2634,7 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>6</v>
@@ -2653,13 +2655,13 @@
         <v>7.5</v>
       </c>
       <c r="U20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>23</v>
       </c>
       <c r="W20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
@@ -2681,10 +2683,10 @@
         <v>67</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AG20" t="n">
         <v>1.4</v>
@@ -2693,10 +2695,10 @@
         <v>2.75</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21">
@@ -2731,19 +2733,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
         <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2752,7 +2754,7 @@
         <v>2.4</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>6</v>
@@ -2761,7 +2763,7 @@
         <v>9.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="R21" t="n">
         <v>15</v>
@@ -2770,7 +2772,7 @@
         <v>41</v>
       </c>
       <c r="T21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
         <v>7.5</v>
@@ -2779,11 +2781,11 @@
         <v>23</v>
       </c>
       <c r="W21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
         <v>41</v>
@@ -2847,28 +2849,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="K22" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
         <v>29</v>
@@ -2886,55 +2888,55 @@
         <v>51</v>
       </c>
       <c r="T22" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="U22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>17</v>
+      </c>
+      <c r="W22" t="n">
+        <v>51</v>
+      </c>
+      <c r="X22" t="n">
+        <v>351</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>7</v>
       </c>
-      <c r="V22" t="n">
-        <v>21</v>
-      </c>
-      <c r="W22" t="n">
-        <v>67</v>
-      </c>
-      <c r="X22" t="n">
-        <v>700</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23">
@@ -2981,7 +2983,7 @@
         <v>2.7</v>
       </c>
       <c r="K23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -3002,7 +3004,7 @@
         <v>23</v>
       </c>
       <c r="R23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S23" t="n">
         <v>41</v>
@@ -3029,28 +3031,28 @@
         <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AI23" t="n">
         <v>2.2</v>
@@ -3091,7 +3093,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>
@@ -3207,19 +3209,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="L25" t="n">
         <v>1.53</v>
@@ -3228,13 +3230,13 @@
         <v>2.2</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
         <v>8.5</v>
       </c>
       <c r="P25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
         <v>19</v>
@@ -3243,38 +3245,38 @@
         <v>21</v>
       </c>
       <c r="S25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z25" t="n">
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1329,7 +1329,7 @@
         <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1446,10 +1446,10 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1515,10 +1515,10 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>1.73</v>
@@ -1675,16 +1675,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K12" t="n">
         <v>1.47</v>
@@ -1699,16 +1699,16 @@
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="P12" t="n">
         <v>9.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" t="n">
         <v>45</v>
@@ -1727,22 +1727,22 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z12" t="n">
         <v>14</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AD12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
         <v>2.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="15">
@@ -2035,61 +2035,65 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.52</v>
+      </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="P15" t="n">
         <v>7.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="R15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32</v>
+      </c>
+      <c r="T15" t="n">
         <v>9.5</v>
       </c>
-      <c r="S15" t="n">
-        <v>28</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="U15" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="V15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
         <v>300</v>
@@ -2098,7 +2102,7 @@
         <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -2139,64 +2143,64 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
         <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="K16" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="N16" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="O16" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="P16" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="R16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="S16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T16" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="U16" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W16" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="X16" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
         <v>8.75</v>
@@ -2205,10 +2209,10 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
@@ -2249,13 +2253,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>2.15</v>
@@ -2315,7 +2319,7 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
@@ -2333,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18">
@@ -2380,10 +2384,10 @@
         <v>2.55</v>
       </c>
       <c r="J18" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="K18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
         <v>1.36</v>
@@ -2443,19 +2447,19 @@
         <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.05</v>
@@ -2505,7 +2509,7 @@
         <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
@@ -2625,7 +2629,7 @@
         <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2805,10 +2809,10 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AI21" t="n">
         <v>2.32</v>
@@ -2921,13 +2925,13 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AF22" t="n">
         <v>9.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AH22" t="n">
         <v>3.5</v>
@@ -2980,10 +2984,10 @@
         <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -3043,7 +3047,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
@@ -3052,7 +3056,7 @@
         <v>1.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="AI23" t="n">
         <v>2.2</v>
@@ -3093,7 +3097,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1097,19 +1097,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>1.37</v>
@@ -1118,55 +1118,55 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="P7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="R7" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7" t="n">
         <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V7" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="W7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X7" t="n">
         <v>450</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AC7" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1437,19 +1437,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I10" t="n">
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1473,10 +1473,10 @@
         <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U10" t="n">
         <v>9</v>
@@ -1515,10 +1515,10 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AI10" t="n">
         <v>1.73</v>
@@ -1675,19 +1675,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="J12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.52</v>
@@ -1696,28 +1696,28 @@
         <v>2.22</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="O12" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="P12" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S12" t="n">
         <v>45</v>
       </c>
       <c r="T12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="U12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
         <v>18.5</v>
@@ -1727,19 +1727,19 @@
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
         <v>50</v>
@@ -1750,10 +1750,10 @@
         <v>1.47</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.62</v>
@@ -2000,7 +2000,7 @@
         <v>2.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="15">
@@ -2035,74 +2035,74 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="K15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="O15" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="P15" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="R15" t="n">
         <v>10.25</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="V15" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
@@ -2253,19 +2253,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2307,7 +2307,7 @@
         <v>301</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
@@ -2319,7 +2319,7 @@
         <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
@@ -2337,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="18">
@@ -2459,7 +2459,7 @@
         <v>3.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.05</v>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
@@ -2506,10 +2506,10 @@
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="K19" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="L19" t="n">
         <v>1.44</v>
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K20" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2638,7 +2638,7 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
         <v>6</v>
@@ -2647,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="R20" t="n">
         <v>15</v>
@@ -2656,7 +2656,7 @@
         <v>41</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U20" t="n">
         <v>8</v>
@@ -2672,13 +2672,13 @@
         <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AC20" t="n">
         <v>67</v>
@@ -2687,22 +2687,22 @@
         <v>67</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AF20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="21">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -2746,10 +2746,10 @@
         <v>7.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K21" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="L21" t="n">
         <v>1.44</v>
@@ -2859,13 +2859,13 @@
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -2925,10 +2925,10 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
         <v>1.29</v>
@@ -2987,7 +2987,7 @@
         <v>2.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="L23" t="n">
         <v>1.57</v>
@@ -2996,10 +2996,10 @@
         <v>2.25</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P23" t="n">
         <v>11</v>
@@ -3008,13 +3008,13 @@
         <v>23</v>
       </c>
       <c r="R23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S23" t="n">
         <v>41</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U23" t="n">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X23" t="n">
         <v>301</v>
@@ -3035,13 +3035,13 @@
         <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3222,10 +3222,10 @@
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="L25" t="n">
         <v>1.53</v>
@@ -3328,36 +3328,90 @@
           <t>Guarani de Fram</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>37</v>
+      </c>
+      <c r="T26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>18</v>
+      </c>
+      <c r="W26" t="n">
+        <v>110</v>
+      </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
+      <c r="Y26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>60</v>
+      </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="AG26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3390,36 +3444,90 @@
           <t>Sp. Carapegua</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>24</v>
+      </c>
+      <c r="S27" t="n">
+        <v>40</v>
+      </c>
+      <c r="T27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>100</v>
+      </c>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>45</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="AG27" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -650,7 +650,7 @@
         <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.62</v>
@@ -662,10 +662,10 @@
         <v>1.53</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N2" t="n">
         <v>9.75</v>
@@ -680,13 +680,13 @@
         <v>90</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="S2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="T2" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>5.7</v>
@@ -1210,7 +1210,7 @@
         <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I8" t="n">
         <v>2.55</v>
@@ -1231,7 +1231,7 @@
         <v>6.3</v>
       </c>
       <c r="O8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
         <v>8.75</v>
@@ -1261,7 +1261,7 @@
         <v>500</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z8" t="n">
         <v>9.75</v>
@@ -1276,7 +1276,7 @@
         <v>19.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
@@ -1317,19 +1317,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.25</v>
       </c>
       <c r="K9" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1341,7 +1341,7 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="P9" t="n">
         <v>9</v>
@@ -1356,7 +1356,7 @@
         <v>34</v>
       </c>
       <c r="T9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
         <v>7</v>
@@ -1365,23 +1365,23 @@
         <v>21</v>
       </c>
       <c r="W9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
         <v>51</v>
@@ -1390,7 +1390,7 @@
         <v>1.08</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
         <v>1.4</v>
@@ -1399,10 +1399,10 @@
         <v>2.75</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="10">
@@ -1437,19 +1437,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
         <v>4.75</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1467,10 +1467,10 @@
         <v>8.5</v>
       </c>
       <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
         <v>11</v>
-      </c>
-      <c r="R10" t="n">
-        <v>12</v>
       </c>
       <c r="S10" t="n">
         <v>21</v>
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>17</v>
@@ -1491,16 +1491,16 @@
         <v>201</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC10" t="n">
         <v>41</v>
@@ -1515,10 +1515,10 @@
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
         <v>1.73</v>
@@ -1675,13 +1675,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>2.37</v>
@@ -1690,56 +1690,56 @@
         <v>1.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N12" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P12" t="n">
         <v>10.75</v>
       </c>
-      <c r="P12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Q12" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
         <v>6.7</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="W12" t="n">
         <v>120</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AC12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AD12" t="n">
         <v>50</v>
@@ -1985,16 +1985,16 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AI14" t="n">
         <v>2.1</v>
@@ -2262,10 +2262,10 @@
         <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>3.7</v>
@@ -2617,13 +2617,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>2.15</v>
@@ -2638,16 +2638,16 @@
         <v>2.63</v>
       </c>
       <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
         <v>5.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>6</v>
       </c>
       <c r="P20" t="n">
         <v>9</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="R20" t="n">
         <v>15</v>
@@ -2659,10 +2659,10 @@
         <v>8</v>
       </c>
       <c r="U20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W20" t="n">
         <v>101</v>
@@ -2684,7 +2684,7 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="n">
         <v>1.07</v>
@@ -2699,10 +2699,10 @@
         <v>3</v>
       </c>
       <c r="AI20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -2859,7 +2859,7 @@
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
         <v>1.93</v>
@@ -2975,13 +2975,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
         <v>2.6</v>
@@ -2996,10 +2996,10 @@
         <v>2.25</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
         <v>11</v>
@@ -3008,13 +3008,13 @@
         <v>23</v>
       </c>
       <c r="R23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S23" t="n">
         <v>41</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X23" t="n">
         <v>301</v>
@@ -3035,13 +3035,13 @@
         <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD23" t="n">
         <v>41</v>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>4.5</v>
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="P24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="n">
         <v>12</v>
@@ -3136,7 +3136,7 @@
         <v>34</v>
       </c>
       <c r="T24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U24" t="n">
         <v>7.5</v>
@@ -3350,13 +3350,13 @@
         <v>2.2</v>
       </c>
       <c r="N26" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
         <v>8.25</v>
       </c>
       <c r="P26" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Q26" t="n">
         <v>17.5</v>
@@ -3368,10 +3368,10 @@
         <v>37</v>
       </c>
       <c r="T26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U26" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="V26" t="n">
         <v>18</v>
@@ -3384,7 +3384,7 @@
         <v>8.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
         <v>14</v>
@@ -3448,7 +3448,7 @@
         <v>2.37</v>
       </c>
       <c r="H27" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
         <v>3.05</v>
@@ -3481,10 +3481,10 @@
         <v>24</v>
       </c>
       <c r="S27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U27" t="n">
         <v>5.8</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-08.xlsx
@@ -1317,13 +1317,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.25</v>
@@ -1375,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>51</v>
@@ -1387,10 +1387,10 @@
         <v>51</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>1.4</v>
@@ -1509,19 +1509,19 @@
         <v>41</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AF10" t="n">
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AH10" t="n">
         <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>2.1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="15">
@@ -2143,28 +2143,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="N16" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O16" t="n">
         <v>9.25</v>
@@ -2182,10 +2182,10 @@
         <v>22</v>
       </c>
       <c r="T16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V16" t="n">
         <v>11.5</v>
@@ -2197,7 +2197,7 @@
         <v>300</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z16" t="n">
         <v>12</v>
@@ -2253,19 +2253,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2280,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="P17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
         <v>29</v>
@@ -2292,7 +2292,7 @@
         <v>34</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
         <v>6</v>
@@ -2307,7 +2307,7 @@
         <v>301</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>12</v>
@@ -2325,16 +2325,16 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AH17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AI17" t="n">
         <v>1.91</v>
@@ -2853,19 +2853,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="J22" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="K22" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -2874,16 +2874,16 @@
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="R22" t="n">
         <v>51</v>
@@ -2892,16 +2892,16 @@
         <v>51</v>
       </c>
       <c r="T22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
         <v>7.5</v>
       </c>
       <c r="V22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X22" t="n">
         <v>351</v>
@@ -2910,13 +2910,13 @@
         <v>6.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA22" t="n">
         <v>8.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
@@ -2925,10 +2925,10 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
         <v>1.29</v>
@@ -2937,10 +2937,10 @@
         <v>3.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="23">
